--- a/KatalonProjects/virtualShowData.xlsx
+++ b/KatalonProjects/virtualShowData.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\testautomation\NewArrivals\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\testautomation\KatalonProjects\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -110,7 +110,7 @@
     <t>vsyear</t>
   </si>
   <si>
-    <t>https://test21.cliotest.com/backoffice/control/main</t>
+    <t>https://test14.cliotest.com/backoffice/control/main</t>
   </si>
 </sst>
 </file>
@@ -445,7 +445,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>

--- a/KatalonProjects/virtualShowData.xlsx
+++ b/KatalonProjects/virtualShowData.xlsx
@@ -110,7 +110,7 @@
     <t>vsyear</t>
   </si>
   <si>
-    <t>https://test14.cliotest.com/backoffice/control/main</t>
+    <t>https://test13.cliotest.com/backoffice/control/main</t>
   </si>
 </sst>
 </file>

--- a/KatalonProjects/virtualShowData.xlsx
+++ b/KatalonProjects/virtualShowData.xlsx
@@ -110,7 +110,7 @@
     <t>vsyear</t>
   </si>
   <si>
-    <t>https://test14.cliotest.com/backoffice/control/main</t>
+    <t>https://test21.cliotest.com/backoffice/control/main</t>
   </si>
 </sst>
 </file>
@@ -445,7 +445,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -581,7 +581,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://test19.cliotest.com/backoffice/control/main"/>
+    <hyperlink ref="A2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>

--- a/KatalonProjects/virtualShowData.xlsx
+++ b/KatalonProjects/virtualShowData.xlsx
@@ -47,21 +47,9 @@
     <t>guest2</t>
   </si>
   <si>
-    <t>neohost1 abc</t>
-  </si>
-  <si>
-    <t>neocohost1 abc</t>
-  </si>
-  <si>
-    <t>michigan contact</t>
-  </si>
-  <si>
     <t>testEnvt</t>
   </si>
   <si>
-    <t>neoguest1 abc</t>
-  </si>
-  <si>
     <t>stylist</t>
   </si>
   <si>
@@ -71,36 +59,21 @@
     <t>verifyHostess</t>
   </si>
   <si>
-    <t>abc, neohost1</t>
-  </si>
-  <si>
     <t>verifyCohostess</t>
   </si>
   <si>
-    <t>abc, neocohost1</t>
-  </si>
-  <si>
     <t>verifyGuest1</t>
   </si>
   <si>
-    <t>Contact, Michigan</t>
-  </si>
-  <si>
     <t>verifyGuest2</t>
   </si>
   <si>
-    <t>abc, neoguest1</t>
-  </si>
-  <si>
     <t>verifyGuestCount</t>
   </si>
   <si>
     <t>cabiTestEnvt</t>
   </si>
   <si>
-    <t>cabitest5</t>
-  </si>
-  <si>
     <t>vsday</t>
   </si>
   <si>
@@ -110,7 +83,34 @@
     <t>vsyear</t>
   </si>
   <si>
-    <t>https://test13.cliotest.com/backoffice/control/main</t>
+    <t>sushanthost abc</t>
+  </si>
+  <si>
+    <t>sushantcohost abc</t>
+  </si>
+  <si>
+    <t>sushantguest1 abc</t>
+  </si>
+  <si>
+    <t>sushantguest2 abc</t>
+  </si>
+  <si>
+    <t>abc, sushanthost</t>
+  </si>
+  <si>
+    <t>abc, sushantcohost</t>
+  </si>
+  <si>
+    <t>abc, sushantguest1</t>
+  </si>
+  <si>
+    <t>abc, sushantguest2</t>
+  </si>
+  <si>
+    <t>https://sandbox.cabiclio.com/backoffice/control/main</t>
+  </si>
+  <si>
+    <t>cabisandbox</t>
   </si>
 </sst>
 </file>
@@ -445,8 +445,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -475,7 +475,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -484,7 +484,7 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
@@ -499,36 +499,36 @@
         <v>6</v>
       </c>
       <c r="I1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" t="s">
         <v>14</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O1" t="s">
         <v>16</v>
       </c>
-      <c r="K1" t="s">
-        <v>22</v>
-      </c>
-      <c r="L1" t="s">
+      <c r="P1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q1" t="s">
         <v>18</v>
-      </c>
-      <c r="M1" t="s">
-        <v>20</v>
-      </c>
-      <c r="N1" t="s">
-        <v>23</v>
-      </c>
-      <c r="O1" t="s">
-        <v>25</v>
-      </c>
-      <c r="P1" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B2" s="1">
         <v>400000002</v>
@@ -537,40 +537,40 @@
         <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="F2" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" t="s">
-        <v>9</v>
+        <v>21</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="K2">
         <v>2</v>
       </c>
       <c r="L2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="M2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="N2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="O2">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="P2">
         <v>7</v>
@@ -581,7 +581,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://test19.cliotest.com/backoffice/control/main"/>
+    <hyperlink ref="A2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>

--- a/KatalonProjects/virtualShowData.xlsx
+++ b/KatalonProjects/virtualShowData.xlsx
@@ -110,7 +110,7 @@
     <t>vsyear</t>
   </si>
   <si>
-    <t>https://test21.cliotest.com/backoffice/control/main</t>
+    <t>https://test19.cliotest.com/backoffice/control/main</t>
   </si>
 </sst>
 </file>
@@ -581,7 +581,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://test21.cliotest.com/backoffice/control/main"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>

--- a/KatalonProjects/virtualShowData.xlsx
+++ b/KatalonProjects/virtualShowData.xlsx
@@ -47,9 +47,6 @@
     <t>guest2</t>
   </si>
   <si>
-    <t>neohost1 abc</t>
-  </si>
-  <si>
     <t>neocohost1 abc</t>
   </si>
   <si>
@@ -59,9 +56,6 @@
     <t>testEnvt</t>
   </si>
   <si>
-    <t>neoguest1 abc</t>
-  </si>
-  <si>
     <t>stylist</t>
   </si>
   <si>
@@ -71,9 +65,6 @@
     <t>verifyHostess</t>
   </si>
   <si>
-    <t>abc, neohost1</t>
-  </si>
-  <si>
     <t>verifyCohostess</t>
   </si>
   <si>
@@ -89,9 +80,6 @@
     <t>verifyGuest2</t>
   </si>
   <si>
-    <t>abc, neoguest1</t>
-  </si>
-  <si>
     <t>verifyGuestCount</t>
   </si>
   <si>
@@ -110,7 +98,19 @@
     <t>vsyear</t>
   </si>
   <si>
-    <t>https://test14.cliotest.com/backoffice/control/main</t>
+    <t>https://test21.cliotest.com/backoffice/control/main</t>
+  </si>
+  <si>
+    <t>neoguest3 abc</t>
+  </si>
+  <si>
+    <t>abc, neoguest3</t>
+  </si>
+  <si>
+    <t>neohost2 abc</t>
+  </si>
+  <si>
+    <t>abc, neohost2</t>
   </si>
 </sst>
 </file>
@@ -445,8 +445,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -475,7 +475,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -484,7 +484,7 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
@@ -499,36 +499,36 @@
         <v>6</v>
       </c>
       <c r="I1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="K1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N1" t="s">
+        <v>19</v>
+      </c>
+      <c r="O1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P1" t="s">
         <v>22</v>
       </c>
-      <c r="L1" t="s">
-        <v>18</v>
-      </c>
-      <c r="M1" t="s">
-        <v>20</v>
-      </c>
-      <c r="N1" t="s">
+      <c r="Q1" t="s">
         <v>23</v>
-      </c>
-      <c r="O1" t="s">
-        <v>25</v>
-      </c>
-      <c r="P1" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B2" s="1">
         <v>400000002</v>
@@ -537,37 +537,37 @@
         <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" t="s">
         <v>7</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" t="s">
-        <v>9</v>
-      </c>
       <c r="I2" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="J2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K2">
         <v>2</v>
       </c>
       <c r="L2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="M2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="N2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="O2">
         <v>15</v>
@@ -581,7 +581,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://test19.cliotest.com/backoffice/control/main"/>
+    <hyperlink ref="A2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>

--- a/KatalonProjects/virtualShowData.xlsx
+++ b/KatalonProjects/virtualShowData.xlsx
@@ -98,9 +98,6 @@
     <t>vsyear</t>
   </si>
   <si>
-    <t>https://test21.cliotest.com/backoffice/control/main</t>
-  </si>
-  <si>
     <t>neoguest3 abc</t>
   </si>
   <si>
@@ -111,24 +108,19 @@
   </si>
   <si>
     <t>abc, neohost2</t>
+  </si>
+  <si>
+    <t>https://sandbox.cabiclio.com/backoffice/control/main</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -151,20 +143,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -445,8 +434,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -527,8 +516,8 @@
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>24</v>
+      <c r="A2" t="s">
+        <v>28</v>
       </c>
       <c r="B2" s="1">
         <v>400000002</v>
@@ -540,19 +529,19 @@
         <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F2" t="s">
         <v>7</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H2" t="s">
         <v>8</v>
       </c>
       <c r="I2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J2" t="s">
         <v>14</v>
@@ -561,7 +550,7 @@
         <v>2</v>
       </c>
       <c r="L2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M2" t="s">
         <v>16</v>
@@ -580,10 +569,7 @@
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/KatalonProjects/virtualShowData.xlsx
+++ b/KatalonProjects/virtualShowData.xlsx
@@ -47,12 +47,6 @@
     <t>guest2</t>
   </si>
   <si>
-    <t>neocohost1 abc</t>
-  </si>
-  <si>
-    <t>michigan contact</t>
-  </si>
-  <si>
     <t>testEnvt</t>
   </si>
   <si>
@@ -68,15 +62,9 @@
     <t>verifyCohostess</t>
   </si>
   <si>
-    <t>abc, neocohost1</t>
-  </si>
-  <si>
     <t>verifyGuest1</t>
   </si>
   <si>
-    <t>Contact, Michigan</t>
-  </si>
-  <si>
     <t>verifyGuest2</t>
   </si>
   <si>
@@ -98,19 +86,31 @@
     <t>vsyear</t>
   </si>
   <si>
-    <t>https://test21.cliotest.com/backoffice/control/main</t>
-  </si>
-  <si>
-    <t>neoguest3 abc</t>
-  </si>
-  <si>
-    <t>abc, neoguest3</t>
-  </si>
-  <si>
-    <t>neohost2 abc</t>
-  </si>
-  <si>
-    <t>abc, neohost2</t>
+    <t>sushanthost abc</t>
+  </si>
+  <si>
+    <t>sushantcohost abc</t>
+  </si>
+  <si>
+    <t>sushantguest1 abc</t>
+  </si>
+  <si>
+    <t>sushantguest2 abc</t>
+  </si>
+  <si>
+    <t>abc, sushanthost</t>
+  </si>
+  <si>
+    <t>abc, sushantcohost</t>
+  </si>
+  <si>
+    <t>abc, sushantguest1</t>
+  </si>
+  <si>
+    <t>abc, sushantguest2</t>
+  </si>
+  <si>
+    <t>https://sandbox.cabiclio.com/backoffice/control/main</t>
   </si>
 </sst>
 </file>
@@ -445,8 +445,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -475,7 +475,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -484,7 +484,7 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
@@ -499,36 +499,36 @@
         <v>6</v>
       </c>
       <c r="I1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" t="s">
         <v>12</v>
       </c>
-      <c r="J1" t="s">
+      <c r="M1" t="s">
         <v>13</v>
       </c>
-      <c r="K1" t="s">
+      <c r="N1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P1" t="s">
         <v>18</v>
       </c>
-      <c r="L1" t="s">
-        <v>15</v>
-      </c>
-      <c r="M1" t="s">
-        <v>17</v>
-      </c>
-      <c r="N1" t="s">
+      <c r="Q1" t="s">
         <v>19</v>
-      </c>
-      <c r="O1" t="s">
-        <v>21</v>
-      </c>
-      <c r="P1" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B2" s="1">
         <v>400000002</v>
@@ -537,25 +537,25 @@
         <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="G2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" t="s">
         <v>25</v>
-      </c>
-      <c r="H2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I2" t="s">
-        <v>28</v>
-      </c>
-      <c r="J2" t="s">
-        <v>14</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -564,10 +564,10 @@
         <v>26</v>
       </c>
       <c r="M2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N2" t="s">
         <v>16</v>
-      </c>
-      <c r="N2" t="s">
-        <v>20</v>
       </c>
       <c r="O2">
         <v>15</v>
@@ -581,7 +581,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://test21.cliotest.com/backoffice/control/main"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>

--- a/KatalonProjects/virtualShowData.xlsx
+++ b/KatalonProjects/virtualShowData.xlsx
@@ -74,9 +74,6 @@
     <t>cabiTestEnvt</t>
   </si>
   <si>
-    <t>cabitest5</t>
-  </si>
-  <si>
     <t>vsday</t>
   </si>
   <si>
@@ -111,6 +108,9 @@
   </si>
   <si>
     <t>https://sandbox.cabiclio.com/backoffice/control/main</t>
+  </si>
+  <si>
+    <t>cabisandbox</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
   <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -517,18 +517,18 @@
         <v>15</v>
       </c>
       <c r="O1" t="s">
+        <v>16</v>
+      </c>
+      <c r="P1" t="s">
         <v>17</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>18</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B2" s="1">
         <v>400000002</v>
@@ -540,34 +540,34 @@
         <v>9</v>
       </c>
       <c r="E2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" t="s">
         <v>20</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" t="s">
         <v>23</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>24</v>
-      </c>
-      <c r="J2" t="s">
-        <v>25</v>
       </c>
       <c r="K2">
         <v>2</v>
       </c>
       <c r="L2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" t="s">
         <v>26</v>
       </c>
-      <c r="M2" t="s">
-        <v>27</v>
-      </c>
       <c r="N2" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="O2">
         <v>15</v>

--- a/KatalonProjects/virtualShowData.xlsx
+++ b/KatalonProjects/virtualShowData.xlsx
@@ -24,16 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
-  <si>
-    <t>username</t>
-  </si>
-  <si>
-    <t>password</t>
-  </si>
-  <si>
-    <t>blackdress19</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>hostess</t>
   </si>
@@ -47,9 +38,6 @@
     <t>guest2</t>
   </si>
   <si>
-    <t>testEnvt</t>
-  </si>
-  <si>
     <t>stylist</t>
   </si>
   <si>
@@ -71,9 +59,6 @@
     <t>verifyGuestCount</t>
   </si>
   <si>
-    <t>cabiTestEnvt</t>
-  </si>
-  <si>
     <t>vsday</t>
   </si>
   <si>
@@ -105,30 +90,16 @@
   </si>
   <si>
     <t>abc, sushantguest2</t>
-  </si>
-  <si>
-    <t>https://sandbox.cabiclio.com/backoffice/control/main</t>
-  </si>
-  <si>
-    <t>cabisandbox</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -151,20 +122,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -443,69 +408,65 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V2"/>
+  <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1:K1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="44.140625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="14.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.85546875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="18.42578125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="17" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="19.140625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="17.5703125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="16.5703125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="25" customWidth="1" collapsed="1"/>
-    <col min="10" max="12" width="16.5703125" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="23.42578125" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="16.5703125" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="24.28515625" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="20.7109375" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="13.85546875" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="22" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="23.5703125" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="18.140625" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="20.28515625" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="19.85546875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="18.42578125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="17" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="19.140625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="17.5703125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="16.5703125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="25" customWidth="1" collapsed="1"/>
+    <col min="7" max="9" width="16.5703125" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="23.42578125" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="24.28515625" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="20.7109375" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="13.85546875" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="22" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="23.5703125" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="18.140625" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="20.28515625" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="19.85546875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="I1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
         <v>11</v>
-      </c>
-      <c r="K1" t="s">
-        <v>14</v>
       </c>
       <c r="L1" t="s">
         <v>12</v>
@@ -513,77 +474,50 @@
       <c r="M1" t="s">
         <v>13</v>
       </c>
-      <c r="N1" t="s">
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
         <v>15</v>
       </c>
-      <c r="O1" t="s">
+      <c r="D2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="P1" t="s">
+      <c r="E2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="F2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B2" s="1">
-        <v>400000002</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="G2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2">
         <v>2</v>
       </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="I2" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="J2" t="s">
         <v>21</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J2" t="s">
-        <v>24</v>
-      </c>
       <c r="K2">
-        <v>2</v>
-      </c>
-      <c r="L2" t="s">
-        <v>25</v>
-      </c>
-      <c r="M2" t="s">
-        <v>26</v>
-      </c>
-      <c r="N2" t="s">
-        <v>28</v>
-      </c>
-      <c r="O2">
         <v>15</v>
       </c>
-      <c r="P2">
+      <c r="L2">
         <v>7</v>
       </c>
-      <c r="Q2">
+      <c r="M2">
         <v>2019</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://test21.cliotest.com/backoffice/control/main"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/KatalonProjects/virtualShowData.xlsx
+++ b/KatalonProjects/virtualShowData.xlsx
@@ -95,22 +95,22 @@
     <t>sushantguest2 abc</t>
   </si>
   <si>
-    <t>abc, sushanthost</t>
-  </si>
-  <si>
-    <t>abc, sushantcohost</t>
-  </si>
-  <si>
-    <t>abc, sushantguest1</t>
-  </si>
-  <si>
-    <t>abc, sushantguest2</t>
-  </si>
-  <si>
     <t>https://sandbox.cabiclio.com/backoffice/control/main</t>
   </si>
   <si>
     <t>cabisandbox</t>
+  </si>
+  <si>
+    <t>abc, vishalhost</t>
+  </si>
+  <si>
+    <t>abc, vishalcohost</t>
+  </si>
+  <si>
+    <t>abc, vishalguest1</t>
+  </si>
+  <si>
+    <t>abc, vishalguest2</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
   <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+      <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -460,7 +460,9 @@
     <col min="7" max="7" width="17.5703125" customWidth="1" collapsed="1"/>
     <col min="8" max="8" width="16.5703125" customWidth="1" collapsed="1"/>
     <col min="9" max="9" width="25" customWidth="1" collapsed="1"/>
-    <col min="10" max="12" width="16.5703125" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="21.28515625" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="19.5703125" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="20.28515625" customWidth="1" collapsed="1"/>
     <col min="13" max="13" width="23.42578125" customWidth="1" collapsed="1"/>
     <col min="14" max="14" width="16.5703125" customWidth="1" collapsed="1"/>
     <col min="15" max="15" width="24.28515625" customWidth="1" collapsed="1"/>
@@ -528,7 +530,7 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B2" s="1">
         <v>400000002</v>
@@ -552,22 +554,22 @@
         <v>22</v>
       </c>
       <c r="I2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K2">
         <v>2</v>
       </c>
       <c r="L2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="M2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="N2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="O2">
         <v>15</v>

--- a/KatalonProjects/virtualShowData.xlsx
+++ b/KatalonProjects/virtualShowData.xlsx
@@ -24,16 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
-  <si>
-    <t>username</t>
-  </si>
-  <si>
-    <t>password</t>
-  </si>
-  <si>
-    <t>blackdress19</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>hostess</t>
   </si>
@@ -47,9 +38,6 @@
     <t>guest2</t>
   </si>
   <si>
-    <t>testEnvt</t>
-  </si>
-  <si>
     <t>stylist</t>
   </si>
   <si>
@@ -71,9 +59,6 @@
     <t>verifyGuestCount</t>
   </si>
   <si>
-    <t>cabiTestEnvt</t>
-  </si>
-  <si>
     <t>vsday</t>
   </si>
   <si>
@@ -83,22 +68,16 @@
     <t>vsyear</t>
   </si>
   <si>
-    <t>sushanthost abc</t>
-  </si>
-  <si>
-    <t>sushantcohost abc</t>
-  </si>
-  <si>
-    <t>sushantguest1 abc</t>
-  </si>
-  <si>
-    <t>sushantguest2 abc</t>
-  </si>
-  <si>
-    <t>https://sandbox.cabiclio.com/backoffice/control/main</t>
-  </si>
-  <si>
-    <t>cabisandbox</t>
+    <t>vishalhost abc</t>
+  </si>
+  <si>
+    <t>vishalcohost abc</t>
+  </si>
+  <si>
+    <t>vishalguest1 abc</t>
+  </si>
+  <si>
+    <t>vishalguest2 abc</t>
   </si>
   <si>
     <t>abc, vishalhost</t>
@@ -117,18 +96,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -151,20 +122,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -443,71 +408,65 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V2"/>
+  <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="44.140625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="14.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.85546875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="18.42578125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="17" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="19.140625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="17.5703125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="16.5703125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="25" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="21.28515625" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="19.5703125" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="20.28515625" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="23.42578125" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="16.5703125" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="24.28515625" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="20.7109375" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="13.85546875" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="22" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="23.5703125" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="18.140625" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="20.28515625" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="19.85546875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="18.42578125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="17" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="19.140625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="17.5703125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="16.5703125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="25" customWidth="1" collapsed="1"/>
+    <col min="7" max="9" width="16.5703125" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="23.42578125" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="24.28515625" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="20.7109375" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="13.85546875" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="22" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="23.5703125" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="18.140625" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="20.28515625" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="19.85546875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="I1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
         <v>11</v>
-      </c>
-      <c r="K1" t="s">
-        <v>14</v>
       </c>
       <c r="L1" t="s">
         <v>12</v>
@@ -515,77 +474,50 @@
       <c r="M1" t="s">
         <v>13</v>
       </c>
-      <c r="N1" t="s">
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
         <v>15</v>
       </c>
-      <c r="O1" t="s">
+      <c r="D2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="P1" t="s">
+      <c r="E2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="F2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" s="1">
-        <v>400000002</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="G2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2">
         <v>2</v>
       </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="I2" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="J2" t="s">
         <v>21</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I2" t="s">
-        <v>25</v>
-      </c>
-      <c r="J2" t="s">
-        <v>26</v>
-      </c>
       <c r="K2">
-        <v>2</v>
-      </c>
-      <c r="L2" t="s">
-        <v>27</v>
-      </c>
-      <c r="M2" t="s">
-        <v>28</v>
-      </c>
-      <c r="N2" t="s">
-        <v>24</v>
-      </c>
-      <c r="O2">
         <v>15</v>
       </c>
-      <c r="P2">
+      <c r="L2">
         <v>7</v>
       </c>
-      <c r="Q2">
+      <c r="M2">
         <v>2019</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://test21.cliotest.com/backoffice/control/main"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/KatalonProjects/virtualShowData.xlsx
+++ b/KatalonProjects/virtualShowData.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\testautomation\KatalonProjects\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Office\katalon\KatalonProjects\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72DC7EE3-C53A-448F-84DA-7E5317D4395F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="cred" sheetId="1" r:id="rId1"/>
@@ -83,18 +84,6 @@
     <t>vsyear</t>
   </si>
   <si>
-    <t>sushanthost abc</t>
-  </si>
-  <si>
-    <t>sushantcohost abc</t>
-  </si>
-  <si>
-    <t>sushantguest1 abc</t>
-  </si>
-  <si>
-    <t>sushantguest2 abc</t>
-  </si>
-  <si>
     <t>https://sandbox.cabiclio.com/backoffice/control/main</t>
   </si>
   <si>
@@ -111,12 +100,24 @@
   </si>
   <si>
     <t>abc, vishalguest2</t>
+  </si>
+  <si>
+    <t>vishalhost abc</t>
+  </si>
+  <si>
+    <t>vishalcohost abc</t>
+  </si>
+  <si>
+    <t>vishalguest1 abc</t>
+  </si>
+  <si>
+    <t>vishalguest2 abc</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -442,11 +443,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -530,7 +531,7 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B2" s="1">
         <v>400000002</v>
@@ -542,34 +543,34 @@
         <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="F2" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="G2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" t="s">
         <v>21</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="J2" t="s">
         <v>22</v>
-      </c>
-      <c r="I2" t="s">
-        <v>25</v>
-      </c>
-      <c r="J2" t="s">
-        <v>26</v>
       </c>
       <c r="K2">
         <v>2</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="N2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="O2">
         <v>15</v>
@@ -583,7 +584,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://test21.cliotest.com/backoffice/control/main"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://test21.cliotest.com/backoffice/control/main" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>

--- a/KatalonProjects/virtualShowData.xlsx
+++ b/KatalonProjects/virtualShowData.xlsx
@@ -68,28 +68,28 @@
     <t>vsyear</t>
   </si>
   <si>
-    <t>vishalhost abc</t>
-  </si>
-  <si>
-    <t>vishalcohost abc</t>
-  </si>
-  <si>
-    <t>vishalguest1 abc</t>
-  </si>
-  <si>
-    <t>vishalguest2 abc</t>
-  </si>
-  <si>
-    <t>abc, vishalhost</t>
-  </si>
-  <si>
-    <t>abc, vishalcohost</t>
-  </si>
-  <si>
-    <t>abc, vishalguest1</t>
-  </si>
-  <si>
-    <t>abc, vishalguest2</t>
+    <t>sushanthost abc</t>
+  </si>
+  <si>
+    <t>sushantcohost abc</t>
+  </si>
+  <si>
+    <t>sushantguest1 abc</t>
+  </si>
+  <si>
+    <t>sushantguest2 abc</t>
+  </si>
+  <si>
+    <t>abc, sushanthost</t>
+  </si>
+  <si>
+    <t>abc, sushantcohost</t>
+  </si>
+  <si>
+    <t>abc, sushantguest1</t>
+  </si>
+  <si>
+    <t>abc, sushantguest2</t>
   </si>
 </sst>
 </file>
@@ -410,8 +410,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/KatalonProjects/virtualShowData.xlsx
+++ b/KatalonProjects/virtualShowData.xlsx
@@ -411,7 +411,7 @@
   <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -507,10 +507,10 @@
         <v>21</v>
       </c>
       <c r="K2">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="L2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M2">
         <v>2019</v>

--- a/KatalonProjects/virtualShowData.xlsx
+++ b/KatalonProjects/virtualShowData.xlsx
@@ -68,28 +68,28 @@
     <t>vsyear</t>
   </si>
   <si>
-    <t>sushanthost abc</t>
-  </si>
-  <si>
-    <t>sushantcohost abc</t>
-  </si>
-  <si>
-    <t>sushantguest1 abc</t>
-  </si>
-  <si>
-    <t>sushantguest2 abc</t>
-  </si>
-  <si>
-    <t>abc, sushanthost</t>
-  </si>
-  <si>
-    <t>abc, sushantcohost</t>
-  </si>
-  <si>
-    <t>abc, sushantguest1</t>
-  </si>
-  <si>
-    <t>abc, sushantguest2</t>
+    <t>vishalhost abc</t>
+  </si>
+  <si>
+    <t>vishalcohost abc</t>
+  </si>
+  <si>
+    <t>vishalguest1 abc</t>
+  </si>
+  <si>
+    <t>vishalguest2 abc</t>
+  </si>
+  <si>
+    <t>abc, vishalhost</t>
+  </si>
+  <si>
+    <t>abc, vishalcohost</t>
+  </si>
+  <si>
+    <t>abc, vishalguest1</t>
+  </si>
+  <si>
+    <t>abc, vishalguest2</t>
   </si>
 </sst>
 </file>
@@ -410,7 +410,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>

--- a/KatalonProjects/virtualShowData.xlsx
+++ b/KatalonProjects/virtualShowData.xlsx
@@ -68,28 +68,28 @@
     <t>vsyear</t>
   </si>
   <si>
-    <t>vishalhost abc</t>
-  </si>
-  <si>
-    <t>vishalcohost abc</t>
-  </si>
-  <si>
-    <t>vishalguest1 abc</t>
-  </si>
-  <si>
-    <t>vishalguest2 abc</t>
-  </si>
-  <si>
-    <t>abc, vishalhost</t>
-  </si>
-  <si>
-    <t>abc, vishalcohost</t>
-  </si>
-  <si>
-    <t>abc, vishalguest1</t>
-  </si>
-  <si>
-    <t>abc, vishalguest2</t>
+    <t>sushanthost abc</t>
+  </si>
+  <si>
+    <t>sushantcohost abc</t>
+  </si>
+  <si>
+    <t>sushantguest1 abc</t>
+  </si>
+  <si>
+    <t>sushantguest2 abc</t>
+  </si>
+  <si>
+    <t>abc, sushanthost</t>
+  </si>
+  <si>
+    <t>abc, sushantcohost</t>
+  </si>
+  <si>
+    <t>abc, sushantguest1</t>
+  </si>
+  <si>
+    <t>abc, sushantguest2</t>
   </si>
 </sst>
 </file>

--- a/KatalonProjects/virtualShowData.xlsx
+++ b/KatalonProjects/virtualShowData.xlsx
@@ -410,8 +410,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -507,7 +507,7 @@
         <v>21</v>
       </c>
       <c r="K2">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="L2">
         <v>7</v>

--- a/KatalonProjects/virtualShowData.xlsx
+++ b/KatalonProjects/virtualShowData.xlsx
@@ -68,28 +68,28 @@
     <t>vsyear</t>
   </si>
   <si>
-    <t>sushanthost abc</t>
-  </si>
-  <si>
-    <t>sushantcohost abc</t>
-  </si>
-  <si>
-    <t>sushantguest1 abc</t>
-  </si>
-  <si>
-    <t>sushantguest2 abc</t>
-  </si>
-  <si>
-    <t>abc, sushanthost</t>
-  </si>
-  <si>
-    <t>abc, sushantcohost</t>
-  </si>
-  <si>
-    <t>abc, sushantguest1</t>
-  </si>
-  <si>
-    <t>abc, sushantguest2</t>
+    <t>neoguest1 abc</t>
+  </si>
+  <si>
+    <t>neoguest2 abc</t>
+  </si>
+  <si>
+    <t>abc, neohost</t>
+  </si>
+  <si>
+    <t>abc, neocohost</t>
+  </si>
+  <si>
+    <t>abc, neoguest1</t>
+  </si>
+  <si>
+    <t>abc, neoguest2</t>
+  </si>
+  <si>
+    <t>neohost1 abc</t>
+  </si>
+  <si>
+    <t>neocohost1 abc</t>
   </si>
 </sst>
 </file>
@@ -411,7 +411,7 @@
   <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -480,37 +480,37 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="F2" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="G2" t="s">
         <v>17</v>
-      </c>
-      <c r="F2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" t="s">
-        <v>19</v>
       </c>
       <c r="H2">
         <v>2</v>
       </c>
       <c r="I2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K2">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="L2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M2">
         <v>2019</v>

--- a/KatalonProjects/virtualShowData.xlsx
+++ b/KatalonProjects/virtualShowData.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\testautomation\KatalonProjects\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\testautomation_new\KatalonProjects\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -68,28 +68,28 @@
     <t>vsyear</t>
   </si>
   <si>
-    <t>sushanthost abc</t>
-  </si>
-  <si>
-    <t>sushantcohost abc</t>
-  </si>
-  <si>
-    <t>sushantguest1 abc</t>
-  </si>
-  <si>
-    <t>sushantguest2 abc</t>
-  </si>
-  <si>
-    <t>abc, sushanthost</t>
-  </si>
-  <si>
-    <t>abc, sushantcohost</t>
-  </si>
-  <si>
-    <t>abc, sushantguest1</t>
-  </si>
-  <si>
-    <t>abc, sushantguest2</t>
+    <t>vishalhost abc</t>
+  </si>
+  <si>
+    <t>vishalcohost abc</t>
+  </si>
+  <si>
+    <t>vishalguest1 abc</t>
+  </si>
+  <si>
+    <t>vishalguest2 abc</t>
+  </si>
+  <si>
+    <t>abc, vishalhost</t>
+  </si>
+  <si>
+    <t>abc, vishalcohost</t>
+  </si>
+  <si>
+    <t>abc, vishalguest1</t>
+  </si>
+  <si>
+    <t>abc, vishalguest2</t>
   </si>
 </sst>
 </file>

--- a/KatalonProjects/virtualShowData.xlsx
+++ b/KatalonProjects/virtualShowData.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\testautomation\KatalonProjects\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\testautomation_new\KatalonProjects\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -68,28 +68,28 @@
     <t>vsyear</t>
   </si>
   <si>
-    <t>neoguest1 abc</t>
-  </si>
-  <si>
-    <t>neoguest2 abc</t>
-  </si>
-  <si>
-    <t>abc, neohost</t>
-  </si>
-  <si>
-    <t>abc, neocohost</t>
-  </si>
-  <si>
-    <t>abc, neoguest1</t>
-  </si>
-  <si>
-    <t>abc, neoguest2</t>
-  </si>
-  <si>
-    <t>neohost1 abc</t>
-  </si>
-  <si>
-    <t>neocohost1 abc</t>
+    <t>vishalhost abc</t>
+  </si>
+  <si>
+    <t>vishalcohost abc</t>
+  </si>
+  <si>
+    <t>vishalguest1 abc</t>
+  </si>
+  <si>
+    <t>vishalguest2 abc</t>
+  </si>
+  <si>
+    <t>abc, vishalhost</t>
+  </si>
+  <si>
+    <t>abc, vishalcohost</t>
+  </si>
+  <si>
+    <t>abc, vishalguest1</t>
+  </si>
+  <si>
+    <t>abc, vishalguest2</t>
   </si>
 </sst>
 </file>
@@ -411,7 +411,7 @@
   <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -480,37 +480,37 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H2">
         <v>2</v>
       </c>
       <c r="I2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K2">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M2">
         <v>2019</v>

--- a/KatalonProjects/virtualShowData.xlsx
+++ b/KatalonProjects/virtualShowData.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\testautomation_new\KatalonProjects\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\testautomation\KatalonProjects\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -68,28 +68,28 @@
     <t>vsyear</t>
   </si>
   <si>
-    <t>vishalhost abc</t>
-  </si>
-  <si>
-    <t>vishalcohost abc</t>
-  </si>
-  <si>
-    <t>vishalguest1 abc</t>
-  </si>
-  <si>
-    <t>vishalguest2 abc</t>
-  </si>
-  <si>
-    <t>abc, vishalhost</t>
-  </si>
-  <si>
-    <t>abc, vishalcohost</t>
-  </si>
-  <si>
-    <t>abc, vishalguest1</t>
-  </si>
-  <si>
-    <t>abc, vishalguest2</t>
+    <t>sushanthost abc</t>
+  </si>
+  <si>
+    <t>sushantcohost abc</t>
+  </si>
+  <si>
+    <t>sushantguest1 abc</t>
+  </si>
+  <si>
+    <t>sushantguest2 abc</t>
+  </si>
+  <si>
+    <t>abc, sushanthost</t>
+  </si>
+  <si>
+    <t>abc, sushantcohost</t>
+  </si>
+  <si>
+    <t>abc, sushantguest1</t>
+  </si>
+  <si>
+    <t>abc, sushantguest2</t>
   </si>
 </sst>
 </file>

--- a/KatalonProjects/virtualShowData.xlsx
+++ b/KatalonProjects/virtualShowData.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\testautomation_new\KatalonProjects\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\testautomation\KatalonProjects\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>

--- a/KatalonProjects/virtualShowData.xlsx
+++ b/KatalonProjects/virtualShowData.xlsx
@@ -410,8 +410,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -507,10 +507,10 @@
         <v>21</v>
       </c>
       <c r="K2">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M2">
         <v>2019</v>

--- a/KatalonProjects/virtualShowData.xlsx
+++ b/KatalonProjects/virtualShowData.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>hostess</t>
   </si>
@@ -90,6 +90,12 @@
   </si>
   <si>
     <t>abc, sushantguest2</t>
+  </si>
+  <si>
+    <t>pastdate</t>
+  </si>
+  <si>
+    <t>yes</t>
   </si>
 </sst>
 </file>
@@ -434,7 +440,7 @@
     <col min="18" max="18" width="19.85546875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -474,8 +480,11 @@
       <c r="M1" t="s">
         <v>13</v>
       </c>
+      <c r="N1" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -507,13 +516,16 @@
         <v>21</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="L2">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="M2">
         <v>2019</v>
+      </c>
+      <c r="N2" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/KatalonProjects/virtualShowData.xlsx
+++ b/KatalonProjects/virtualShowData.xlsx
@@ -68,34 +68,34 @@
     <t>vsyear</t>
   </si>
   <si>
-    <t>sushanthost abc</t>
-  </si>
-  <si>
-    <t>sushantcohost abc</t>
-  </si>
-  <si>
-    <t>sushantguest1 abc</t>
-  </si>
-  <si>
-    <t>sushantguest2 abc</t>
-  </si>
-  <si>
-    <t>abc, sushanthost</t>
-  </si>
-  <si>
-    <t>abc, sushantcohost</t>
-  </si>
-  <si>
-    <t>abc, sushantguest1</t>
-  </si>
-  <si>
-    <t>abc, sushantguest2</t>
-  </si>
-  <si>
     <t>pastdate</t>
   </si>
   <si>
     <t>yes</t>
+  </si>
+  <si>
+    <t>host-test abc</t>
+  </si>
+  <si>
+    <t>cohost-test abc</t>
+  </si>
+  <si>
+    <t>guest1-test abc</t>
+  </si>
+  <si>
+    <t>guest2-test abc</t>
+  </si>
+  <si>
+    <t>abc, host-test</t>
+  </si>
+  <si>
+    <t>abc, cohost-test</t>
+  </si>
+  <si>
+    <t>abc, guest1-test</t>
+  </si>
+  <si>
+    <t>abc, guest2-test</t>
   </si>
 </sst>
 </file>
@@ -416,8 +416,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -481,7 +481,7 @@
         <v>13</v>
       </c>
       <c r="N1" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
@@ -489,31 +489,31 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H2">
         <v>2</v>
       </c>
       <c r="I2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K2">
         <v>13</v>
@@ -525,7 +525,7 @@
         <v>2019</v>
       </c>
       <c r="N2" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/KatalonProjects/virtualShowData.xlsx
+++ b/KatalonProjects/virtualShowData.xlsx
@@ -95,7 +95,7 @@
     <t>pastdate</t>
   </si>
   <si>
-    <t>yes</t>
+    <t>no</t>
   </si>
 </sst>
 </file>
@@ -417,7 +417,7 @@
   <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/KatalonProjects/virtualShowData.xlsx
+++ b/KatalonProjects/virtualShowData.xlsx
@@ -68,34 +68,34 @@
     <t>vsyear</t>
   </si>
   <si>
-    <t>sushanthost abc</t>
-  </si>
-  <si>
-    <t>sushantcohost abc</t>
-  </si>
-  <si>
-    <t>sushantguest1 abc</t>
-  </si>
-  <si>
-    <t>sushantguest2 abc</t>
-  </si>
-  <si>
-    <t>abc, sushanthost</t>
-  </si>
-  <si>
-    <t>abc, sushantcohost</t>
-  </si>
-  <si>
-    <t>abc, sushantguest1</t>
-  </si>
-  <si>
-    <t>abc, sushantguest2</t>
-  </si>
-  <si>
     <t>pastdate</t>
   </si>
   <si>
     <t>no</t>
+  </si>
+  <si>
+    <t>ahostess-test abc</t>
+  </si>
+  <si>
+    <t>bcohost-test abc</t>
+  </si>
+  <si>
+    <t>abc, bcohost-test</t>
+  </si>
+  <si>
+    <t>abc, guest1-test</t>
+  </si>
+  <si>
+    <t>abc, guest2-test</t>
+  </si>
+  <si>
+    <t>abc, ahostess-test</t>
+  </si>
+  <si>
+    <t>guest1-test abc</t>
+  </si>
+  <si>
+    <t>guest2-test abc</t>
   </si>
 </sst>
 </file>
@@ -416,8 +416,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -481,7 +481,7 @@
         <v>13</v>
       </c>
       <c r="N1" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
@@ -489,43 +489,43 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="F2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" t="s">
         <v>18</v>
-      </c>
-      <c r="G2" t="s">
-        <v>19</v>
       </c>
       <c r="H2">
         <v>2</v>
       </c>
       <c r="I2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" t="s">
         <v>20</v>
       </c>
-      <c r="J2" t="s">
-        <v>21</v>
-      </c>
       <c r="K2">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="L2">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="M2">
         <v>2019</v>
       </c>
       <c r="N2" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/KatalonProjects/virtualShowData.xlsx
+++ b/KatalonProjects/virtualShowData.xlsx
@@ -68,34 +68,34 @@
     <t>vsyear</t>
   </si>
   <si>
-    <t>sushanthost abc</t>
-  </si>
-  <si>
-    <t>sushantcohost abc</t>
-  </si>
-  <si>
-    <t>sushantguest1 abc</t>
-  </si>
-  <si>
-    <t>sushantguest2 abc</t>
-  </si>
-  <si>
-    <t>abc, sushanthost</t>
-  </si>
-  <si>
-    <t>abc, sushantcohost</t>
-  </si>
-  <si>
-    <t>abc, sushantguest1</t>
-  </si>
-  <si>
-    <t>abc, sushantguest2</t>
-  </si>
-  <si>
     <t>pastdate</t>
   </si>
   <si>
     <t>no</t>
+  </si>
+  <si>
+    <t>guest1-test abc</t>
+  </si>
+  <si>
+    <t>guest2-test abc</t>
+  </si>
+  <si>
+    <t>abc, guest1-test</t>
+  </si>
+  <si>
+    <t>abc, guest2-test</t>
+  </si>
+  <si>
+    <t>ahostess-test abc</t>
+  </si>
+  <si>
+    <t>abc, ahostess-test</t>
+  </si>
+  <si>
+    <t>bcohost-test abc</t>
+  </si>
+  <si>
+    <t>abc, bcohost-test</t>
   </si>
 </sst>
 </file>
@@ -416,8 +416,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -481,7 +481,7 @@
         <v>13</v>
       </c>
       <c r="N1" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
@@ -489,10 +489,10 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>16</v>
@@ -501,31 +501,31 @@
         <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H2">
         <v>2</v>
       </c>
       <c r="I2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K2">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="L2">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="M2">
         <v>2019</v>
       </c>
       <c r="N2" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/KatalonProjects/virtualShowData.xlsx
+++ b/KatalonProjects/virtualShowData.xlsx
@@ -71,31 +71,31 @@
     <t>pastdate</t>
   </si>
   <si>
+    <t>ahostess-test abc</t>
+  </si>
+  <si>
+    <t>bcohost-test abc</t>
+  </si>
+  <si>
+    <t>abc, bcohost-test</t>
+  </si>
+  <si>
+    <t>abc, guest1-test</t>
+  </si>
+  <si>
+    <t>abc, guest2-test</t>
+  </si>
+  <si>
+    <t>abc, ahostess-test</t>
+  </si>
+  <si>
+    <t>guest1-test abc</t>
+  </si>
+  <si>
+    <t>guest2-test abc</t>
+  </si>
+  <si>
     <t>no</t>
-  </si>
-  <si>
-    <t>ahostess-test abc</t>
-  </si>
-  <si>
-    <t>bcohost-test abc</t>
-  </si>
-  <si>
-    <t>abc, bcohost-test</t>
-  </si>
-  <si>
-    <t>abc, guest1-test</t>
-  </si>
-  <si>
-    <t>abc, guest2-test</t>
-  </si>
-  <si>
-    <t>abc, ahostess-test</t>
-  </si>
-  <si>
-    <t>guest1-test abc</t>
-  </si>
-  <si>
-    <t>guest2-test abc</t>
   </si>
 </sst>
 </file>
@@ -416,8 +416,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -489,31 +489,31 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
         <v>16</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" t="s">
         <v>17</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" t="s">
-        <v>18</v>
       </c>
       <c r="H2">
         <v>2</v>
       </c>
       <c r="I2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" t="s">
         <v>19</v>
-      </c>
-      <c r="J2" t="s">
-        <v>20</v>
       </c>
       <c r="K2">
         <v>7</v>
@@ -525,7 +525,7 @@
         <v>2019</v>
       </c>
       <c r="N2" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/KatalonProjects/virtualShowData.xlsx
+++ b/KatalonProjects/virtualShowData.xlsx
@@ -417,7 +417,7 @@
   <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -516,7 +516,7 @@
         <v>19</v>
       </c>
       <c r="K2">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="L2">
         <v>8</v>

--- a/KatalonProjects/virtualShowData.xlsx
+++ b/KatalonProjects/virtualShowData.xlsx
@@ -71,31 +71,31 @@
     <t>pastdate</t>
   </si>
   <si>
-    <t>ahostess-test abc</t>
-  </si>
-  <si>
-    <t>bcohost-test abc</t>
-  </si>
-  <si>
-    <t>abc, bcohost-test</t>
-  </si>
-  <si>
-    <t>abc, guest1-test</t>
-  </si>
-  <si>
-    <t>abc, guest2-test</t>
-  </si>
-  <si>
-    <t>abc, ahostess-test</t>
-  </si>
-  <si>
-    <t>guest1-test abc</t>
-  </si>
-  <si>
-    <t>guest2-test abc</t>
-  </si>
-  <si>
     <t>no</t>
+  </si>
+  <si>
+    <t>ahostess-test1 abc</t>
+  </si>
+  <si>
+    <t>bcohost-test1 abc</t>
+  </si>
+  <si>
+    <t>guest1-test1 abc</t>
+  </si>
+  <si>
+    <t>guest2-test1 abc</t>
+  </si>
+  <si>
+    <t>abc, ahostess-test1</t>
+  </si>
+  <si>
+    <t>abc, bcohost-test1</t>
+  </si>
+  <si>
+    <t>abc, guest1-test1</t>
+  </si>
+  <si>
+    <t>abc, guest2-test1</t>
   </si>
 </sst>
 </file>
@@ -416,8 +416,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -489,31 +489,31 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F2" t="s">
         <v>20</v>
       </c>
       <c r="G2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="H2">
         <v>2</v>
       </c>
       <c r="I2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="J2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="K2">
         <v>21</v>
@@ -525,7 +525,7 @@
         <v>2019</v>
       </c>
       <c r="N2" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/KatalonProjects/virtualShowData.xlsx
+++ b/KatalonProjects/virtualShowData.xlsx
@@ -74,28 +74,28 @@
     <t>no</t>
   </si>
   <si>
-    <t>ahostess-test1 abc</t>
-  </si>
-  <si>
-    <t>bcohost-test1 abc</t>
-  </si>
-  <si>
-    <t>guest1-test1 abc</t>
-  </si>
-  <si>
-    <t>guest2-test1 abc</t>
-  </si>
-  <si>
-    <t>abc, ahostess-test1</t>
-  </si>
-  <si>
-    <t>abc, bcohost-test1</t>
-  </si>
-  <si>
-    <t>abc, guest1-test1</t>
-  </si>
-  <si>
-    <t>abc, guest2-test1</t>
+    <t>ahostess-test abc</t>
+  </si>
+  <si>
+    <t>bcohost-test abc</t>
+  </si>
+  <si>
+    <t>guest1-test abc</t>
+  </si>
+  <si>
+    <t>guest2-test abc</t>
+  </si>
+  <si>
+    <t>abc, ahostess-test</t>
+  </si>
+  <si>
+    <t>abc, bcohost-test</t>
+  </si>
+  <si>
+    <t>abc, guest1-test</t>
+  </si>
+  <si>
+    <t>abc, guest2-test</t>
   </si>
 </sst>
 </file>
@@ -416,8 +416,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -516,7 +516,7 @@
         <v>23</v>
       </c>
       <c r="K2">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="L2">
         <v>8</v>

--- a/KatalonProjects/virtualShowData.xlsx
+++ b/KatalonProjects/virtualShowData.xlsx
@@ -516,7 +516,7 @@
         <v>23</v>
       </c>
       <c r="K2">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L2">
         <v>8</v>

--- a/KatalonProjects/virtualShowData.xlsx
+++ b/KatalonProjects/virtualShowData.xlsx
@@ -417,7 +417,7 @@
   <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -519,7 +519,7 @@
         <v>30</v>
       </c>
       <c r="L2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M2">
         <v>2019</v>

--- a/KatalonProjects/virtualShowData.xlsx
+++ b/KatalonProjects/virtualShowData.xlsx
@@ -516,10 +516,10 @@
         <v>23</v>
       </c>
       <c r="K2">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="L2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M2">
         <v>2019</v>

--- a/KatalonProjects/virtualShowData.xlsx
+++ b/KatalonProjects/virtualShowData.xlsx
@@ -516,7 +516,7 @@
         <v>23</v>
       </c>
       <c r="K2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L2">
         <v>9</v>

--- a/KatalonProjects/virtualShowData.xlsx
+++ b/KatalonProjects/virtualShowData.xlsx
@@ -516,7 +516,7 @@
         <v>23</v>
       </c>
       <c r="K2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="L2">
         <v>9</v>

--- a/KatalonProjects/virtualShowData.xlsx
+++ b/KatalonProjects/virtualShowData.xlsx
@@ -416,7 +416,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
       <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
@@ -516,7 +516,7 @@
         <v>23</v>
       </c>
       <c r="K2">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="L2">
         <v>9</v>

--- a/KatalonProjects/virtualShowData.xlsx
+++ b/KatalonProjects/virtualShowData.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>hostess</t>
   </si>
@@ -96,6 +96,12 @@
   </si>
   <si>
     <t>abc, guest2-test</t>
+  </si>
+  <si>
+    <t>guest3</t>
+  </si>
+  <si>
+    <t>guest3-test abc</t>
   </si>
 </sst>
 </file>
@@ -414,10 +420,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R2"/>
+  <dimension ref="A1:S2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -426,21 +432,22 @@
     <col min="2" max="2" width="17" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="19.140625" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="17.5703125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="16.5703125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="25" customWidth="1" collapsed="1"/>
-    <col min="7" max="9" width="16.5703125" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="23.42578125" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="24.28515625" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="20.7109375" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="13.85546875" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="22" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="23.5703125" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="18.140625" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="20.28515625" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="19.85546875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="17.5703125" customWidth="1"/>
+    <col min="6" max="6" width="16.5703125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="25" customWidth="1" collapsed="1"/>
+    <col min="8" max="10" width="16.5703125" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="23.42578125" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="24.28515625" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="20.7109375" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="13.85546875" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="22" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="23.5703125" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="18.140625" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="20.28515625" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="19.85546875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -457,34 +464,37 @@
         <v>3</v>
       </c>
       <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>10</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>12</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>13</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -500,31 +510,34 @@
       <c r="E2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" t="s">
         <v>20</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>21</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>2</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>22</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>23</v>
       </c>
-      <c r="K2">
-        <v>10</v>
-      </c>
       <c r="L2">
+        <v>11</v>
+      </c>
+      <c r="M2">
         <v>9</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>2019</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>15</v>
       </c>
     </row>

--- a/KatalonProjects/virtualShowData.xlsx
+++ b/KatalonProjects/virtualShowData.xlsx
@@ -529,7 +529,7 @@
         <v>23</v>
       </c>
       <c r="L2">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="M2">
         <v>9</v>

--- a/KatalonProjects/virtualShowData.xlsx
+++ b/KatalonProjects/virtualShowData.xlsx
@@ -423,7 +423,7 @@
   <dimension ref="A1:S2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -532,7 +532,7 @@
         <v>17</v>
       </c>
       <c r="M2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="N2">
         <v>2019</v>

--- a/KatalonProjects/virtualShowData.xlsx
+++ b/KatalonProjects/virtualShowData.xlsx
@@ -74,34 +74,34 @@
     <t>no</t>
   </si>
   <si>
-    <t>ahostess-test abc</t>
-  </si>
-  <si>
-    <t>bcohost-test abc</t>
-  </si>
-  <si>
-    <t>guest1-test abc</t>
-  </si>
-  <si>
-    <t>guest2-test abc</t>
-  </si>
-  <si>
-    <t>abc, ahostess-test</t>
-  </si>
-  <si>
-    <t>abc, bcohost-test</t>
-  </si>
-  <si>
-    <t>abc, guest1-test</t>
-  </si>
-  <si>
-    <t>abc, guest2-test</t>
-  </si>
-  <si>
     <t>guest3</t>
   </si>
   <si>
-    <t>guest3-test abc</t>
+    <t>abc, ahostess-test1</t>
+  </si>
+  <si>
+    <t>ahostess-test1 abc</t>
+  </si>
+  <si>
+    <t>bcohost-test1 abc</t>
+  </si>
+  <si>
+    <t>guest1-test1 abc</t>
+  </si>
+  <si>
+    <t>guest2-test1 abc</t>
+  </si>
+  <si>
+    <t>guest3-test1 abc</t>
+  </si>
+  <si>
+    <t>abc, bcohost-test1</t>
+  </si>
+  <si>
+    <t>abc, guest1-test1</t>
+  </si>
+  <si>
+    <t>abc, guest2-test1</t>
   </si>
 </sst>
 </file>
@@ -422,8 +422,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -464,7 +464,7 @@
         <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="G1" t="s">
         <v>6</v>
@@ -499,34 +499,34 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G2" t="s">
-        <v>20</v>
-      </c>
       <c r="H2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I2">
         <v>2</v>
       </c>
       <c r="J2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="L2">
         <v>17</v>

--- a/KatalonProjects/virtualShowData.xlsx
+++ b/KatalonProjects/virtualShowData.xlsx
@@ -77,31 +77,31 @@
     <t>guest3</t>
   </si>
   <si>
-    <t>abc, ahostess-test1</t>
-  </si>
-  <si>
-    <t>ahostess-test1 abc</t>
-  </si>
-  <si>
-    <t>bcohost-test1 abc</t>
-  </si>
-  <si>
-    <t>guest1-test1 abc</t>
-  </si>
-  <si>
-    <t>guest2-test1 abc</t>
-  </si>
-  <si>
-    <t>guest3-test1 abc</t>
-  </si>
-  <si>
-    <t>abc, bcohost-test1</t>
-  </si>
-  <si>
-    <t>abc, guest1-test1</t>
-  </si>
-  <si>
-    <t>abc, guest2-test1</t>
+    <t>ahostess-test abc</t>
+  </si>
+  <si>
+    <t>bcohost-test abc</t>
+  </si>
+  <si>
+    <t>guest1-test abc</t>
+  </si>
+  <si>
+    <t>guest2-test abc</t>
+  </si>
+  <si>
+    <t>guest3-test abc</t>
+  </si>
+  <si>
+    <t>abc, ahostess-test</t>
+  </si>
+  <si>
+    <t>abc, bcohost-test</t>
+  </si>
+  <si>
+    <t>abc, guest1-test</t>
+  </si>
+  <si>
+    <t>abc, guest2-test</t>
   </si>
 </sst>
 </file>
@@ -423,7 +423,7 @@
   <dimension ref="A1:S2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -499,22 +499,22 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" t="s">
         <v>18</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" t="s">
         <v>22</v>
-      </c>
-      <c r="G2" t="s">
-        <v>17</v>
       </c>
       <c r="H2" t="s">
         <v>23</v>

--- a/KatalonProjects/virtualShowData.xlsx
+++ b/KatalonProjects/virtualShowData.xlsx
@@ -422,7 +422,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
       <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
@@ -529,10 +529,10 @@
         <v>23</v>
       </c>
       <c r="L2">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="M2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="N2">
         <v>2019</v>

--- a/KatalonProjects/virtualShowData.xlsx
+++ b/KatalonProjects/virtualShowData.xlsx
@@ -529,7 +529,7 @@
         <v>23</v>
       </c>
       <c r="L2">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="M2">
         <v>10</v>

--- a/KatalonProjects/virtualShowData.xlsx
+++ b/KatalonProjects/virtualShowData.xlsx
@@ -423,7 +423,7 @@
   <dimension ref="A1:S2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -532,7 +532,7 @@
         <v>23</v>
       </c>
       <c r="M2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="N2">
         <v>2019</v>
